--- a/挑战者SE单扇双扇数据.xlsx
+++ b/挑战者SE单扇双扇数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/挑战者SE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0A736-2318-1C4C-BA75-A40D08B265D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76891F-053E-5544-A9E6-F9604583D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>单MACH120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>单MACH120吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双9RA12025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,13 +435,23 @@
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>56</v>
       </c>
       <c r="B2">
-        <v>83.9</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>3053</v>
@@ -442,7 +460,7 @@
         <v>59.4</v>
       </c>
       <c r="E2">
-        <v>83.3</v>
+        <v>84.4</v>
       </c>
       <c r="F2">
         <v>3053</v>
@@ -451,18 +469,36 @@
         <v>52.5</v>
       </c>
       <c r="H2">
-        <v>83.8</v>
+        <v>84.9</v>
       </c>
       <c r="I2">
         <v>3053</v>
       </c>
+      <c r="J2">
+        <v>61.2</v>
+      </c>
+      <c r="K2">
+        <v>84.3</v>
+      </c>
+      <c r="L2">
+        <v>4285</v>
+      </c>
+      <c r="M2">
+        <v>59</v>
+      </c>
+      <c r="N2">
+        <v>84.5</v>
+      </c>
+      <c r="O2">
+        <v>4225</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>50</v>
       </c>
       <c r="B3">
-        <v>84.6</v>
+        <v>85.7</v>
       </c>
       <c r="C3">
         <v>2485</v>
@@ -471,7 +507,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>83.9</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>2092</v>
@@ -480,18 +516,36 @@
         <v>50</v>
       </c>
       <c r="H3">
-        <v>84.1</v>
+        <v>85.2</v>
       </c>
       <c r="I3">
         <v>2933</v>
       </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>86.7</v>
+      </c>
+      <c r="L3">
+        <v>2530</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>86.4</v>
+      </c>
+      <c r="O3">
+        <v>2767</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>45.2</v>
       </c>
       <c r="B4">
-        <v>85.3</v>
+        <v>86.4</v>
       </c>
       <c r="C4">
         <v>2070</v>
@@ -500,7 +554,7 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <v>84.7</v>
+        <v>85.8</v>
       </c>
       <c r="F4">
         <v>1819</v>
@@ -509,18 +563,36 @@
         <v>45</v>
       </c>
       <c r="H4">
-        <v>85</v>
+        <v>86.1</v>
       </c>
       <c r="I4">
         <v>2466</v>
       </c>
+      <c r="J4">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>87.8</v>
+      </c>
+      <c r="L4">
+        <v>1960</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <v>87.4</v>
+      </c>
+      <c r="O4">
+        <v>2242</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>86.6</v>
+        <v>87.7</v>
       </c>
       <c r="C5">
         <v>1709</v>
@@ -529,7 +601,7 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>85.5</v>
+        <v>86.6</v>
       </c>
       <c r="F5">
         <v>1509</v>
@@ -538,17 +610,37 @@
         <v>40.6</v>
       </c>
       <c r="H5">
-        <v>85.9</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>2016</v>
       </c>
+      <c r="J5">
+        <v>41.5</v>
+      </c>
+      <c r="K5">
+        <v>88.8</v>
+      </c>
+      <c r="L5">
+        <v>1440</v>
+      </c>
+      <c r="M5">
+        <v>41.5</v>
+      </c>
+      <c r="N5">
+        <v>89.6</v>
+      </c>
+      <c r="O5">
+        <v>1609</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/挑战者SE单扇双扇数据.xlsx
+++ b/挑战者SE单扇双扇数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76891F-053E-5544-A9E6-F9604583D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9697E4F-7DCC-8D43-BDA1-D1B91CF24B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M1" sqref="M1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -436,12 +436,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -475,22 +475,22 @@
         <v>3053</v>
       </c>
       <c r="J2">
+        <v>59</v>
+      </c>
+      <c r="K2">
+        <v>84.5</v>
+      </c>
+      <c r="L2">
+        <v>4225</v>
+      </c>
+      <c r="M2">
         <v>61.2</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>84.3</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>4285</v>
-      </c>
-      <c r="M2">
-        <v>59</v>
-      </c>
-      <c r="N2">
-        <v>84.5</v>
-      </c>
-      <c r="O2">
-        <v>4225</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -525,19 +525,19 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>86.7</v>
+        <v>86.4</v>
       </c>
       <c r="L3">
-        <v>2530</v>
+        <v>2767</v>
       </c>
       <c r="M3">
         <v>50</v>
       </c>
       <c r="N3">
-        <v>86.4</v>
+        <v>86.7</v>
       </c>
       <c r="O3">
-        <v>2767</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -572,19 +572,19 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>87.8</v>
+        <v>87.4</v>
       </c>
       <c r="L4">
-        <v>1960</v>
+        <v>2242</v>
       </c>
       <c r="M4">
         <v>45</v>
       </c>
       <c r="N4">
-        <v>87.4</v>
+        <v>87.8</v>
       </c>
       <c r="O4">
-        <v>2242</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -619,19 +619,19 @@
         <v>41.5</v>
       </c>
       <c r="K5">
-        <v>88.8</v>
+        <v>89.6</v>
       </c>
       <c r="L5">
-        <v>1440</v>
+        <v>1609</v>
       </c>
       <c r="M5">
         <v>41.5</v>
       </c>
       <c r="N5">
-        <v>89.6</v>
+        <v>88.8</v>
       </c>
       <c r="O5">
-        <v>1609</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -639,8 +639,8 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
